--- a/backend/cypress/fixtures/test_workbooks/audit-findings-text-workbook.xlsx
+++ b/backend/cypress/fixtures/test_workbooks/audit-findings-text-workbook.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Coversheet" sheetId="1" state="visible" r:id="rId3"/>
@@ -42,7 +42,7 @@
     <t xml:space="preserve">Version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.4</t>
+    <t xml:space="preserve">1.1.5</t>
   </si>
   <si>
     <t xml:space="preserve">Section</t>
@@ -395,8 +395,8 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -462,8 +462,8 @@
   </sheetPr>
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/cypress/fixtures/test_workbooks/audit-findings-text-workbook.xlsx
+++ b/backend/cypress/fixtures/test_workbooks/audit-findings-text-workbook.xlsx
@@ -42,7 +42,7 @@
     <t xml:space="preserve">Version</t>
   </si>
   <si>
-    <t xml:space="preserve">1.1.5</t>
+    <t xml:space="preserve">1.1.6</t>
   </si>
   <si>
     <t xml:space="preserve">Section</t>
@@ -395,7 +395,7 @@
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -462,8 +462,8 @@
   </sheetPr>
   <dimension ref="A1:C1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="36" zoomScaleNormal="36" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="45" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.00390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
